--- a/src/test/java/ApachePOI/Resources/yeniScenario.xlsx
+++ b/src/test/java/ApachePOI/Resources/yeniScenario.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="12">
   <si>
     <t>login-functionality;login-with-valid-username-and-password</t>
   </si>
@@ -36,6 +36,18 @@
   </si>
   <si>
     <t>multiple-scenaryo;create-a-country-with-outline-data;;2</t>
+  </si>
+  <si>
+    <t>24.07.21</t>
+  </si>
+  <si>
+    <t>ıtem-catagory-functionalty;;;2</t>
+  </si>
+  <si>
+    <t>ıtem-catagory-functionalty;;;3</t>
+  </si>
+  <si>
+    <t>ıtem-catagory-functionalty;;;4</t>
   </si>
 </sst>
 </file>
@@ -80,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -143,6 +155,162 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resources/yeniScenario.xlsx
+++ b/src/test/java/ApachePOI/Resources/yeniScenario.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="14">
   <si>
     <t>login-functionality;login-with-valid-username-and-password</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>ıtem-catagory-functionalty;;;4</t>
+  </si>
+  <si>
+    <t>test-with-jdbc;country-testing-with-database</t>
+  </si>
+  <si>
+    <t>28.07.21</t>
   </si>
 </sst>
 </file>
@@ -92,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -311,6 +317,114 @@
         <v>8</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
